--- a/DataModel/USDM_ConformanceRules_SDR_Reference_ImplementationV1.9.xlsx
+++ b/DataModel/USDM_ConformanceRules_SDR_Reference_ImplementationV1.9.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswesh.mb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswesh.mb\Desktop\ToBeUploaded\API_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B72CE-17A7-4D79-86AE-6DC11082EFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB4DAC0-2A1E-4B4B-81E7-BB3C03D99271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="StudyLevel" sheetId="3" r:id="rId2"/>
-    <sheet name="Common" sheetId="4" r:id="rId3"/>
+    <sheet name="Disclaimer" sheetId="6" r:id="rId2"/>
+    <sheet name="StudyLevel" sheetId="3" r:id="rId3"/>
+    <sheet name="Common" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StudyLevel!$A$1:$E$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StudyLevel!$A$1:$E$146</definedName>
+    <definedName name="_GoBack" localSheetId="1">Disclaimer!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="475">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -1457,13 +1459,33 @@
   </si>
   <si>
     <t>Cross-Reference to Endpoint</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <r>
+      <t>These materials and information, as well as the underlying code/application they relate to, are provided by TransCelerate Biopharma Inc. AS IS.  Any party using or relying on this information, these materials, and/or the underlying code/application do so entirely at their own risk.  Neither TransCelerate nor its members will bear any responsibility or liability for any harm, including indirect or consequential harm, that a user may incur from use or misuse of this information, materials, or underlying code/application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TransCelerate does not endorse any particular software, system, or service.  And the use of specific brands of products or services by TransCelerate and its collaboration partners in developing the SDR Reference Implementation should not be viewed as any endorsement of such products or services.  To the extent that the SDR Reference Implementation incorporates or relies on any specific branded products or services, this resulted out of the practical necessities associated with making a reference implementation available to demonstrate the SDR’s capabilities.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,6 +1528,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1627,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1657,16 +1699,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1675,16 +1733,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1702,22 +1760,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13582,11 +13636,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FB8902-18F2-4079-8CC9-5E87F43DA45D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="125.28515625" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99043BE-1430-4060-BF1C-96B02CFC8CED}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13706,7 +13794,7 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>215</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -13721,7 +13809,7 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="9" t="s">
         <v>215</v>
       </c>
@@ -13734,7 +13822,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="9" t="s">
         <v>217</v>
       </c>
@@ -13747,7 +13835,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>218</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -13762,7 +13850,7 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="9" t="s">
         <v>220</v>
       </c>
@@ -13775,7 +13863,7 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="9" t="s">
         <v>221</v>
       </c>
@@ -13788,7 +13876,7 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9" t="s">
         <v>222</v>
       </c>
@@ -13801,7 +13889,7 @@
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>223</v>
       </c>
@@ -13814,7 +13902,7 @@
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>224</v>
       </c>
@@ -13853,7 +13941,7 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="26" t="s">
         <v>230</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -13868,7 +13956,7 @@
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="9" t="s">
         <v>232</v>
       </c>
@@ -13881,7 +13969,7 @@
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="9" t="s">
         <v>233</v>
       </c>
@@ -13894,7 +13982,7 @@
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="9" t="s">
         <v>234</v>
       </c>
@@ -13907,7 +13995,7 @@
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="9" t="s">
         <v>235</v>
       </c>
@@ -13920,7 +14008,7 @@
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="9" t="s">
         <v>236</v>
       </c>
@@ -13933,7 +14021,7 @@
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="9" t="s">
         <v>237</v>
       </c>
@@ -13946,7 +14034,7 @@
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="9" t="s">
         <v>238</v>
       </c>
@@ -13959,7 +14047,7 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="9" t="s">
         <v>239</v>
       </c>
@@ -13998,7 +14086,7 @@
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="29" t="s">
         <v>244</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -14013,7 +14101,7 @@
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="9" t="s">
         <v>246</v>
       </c>
@@ -14026,7 +14114,7 @@
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="9" t="s">
         <v>247</v>
       </c>
@@ -14039,7 +14127,7 @@
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="9" t="s">
         <v>248</v>
       </c>
@@ -14052,7 +14140,7 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="9" t="s">
         <v>249</v>
       </c>
@@ -14065,7 +14153,7 @@
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="9" t="s">
         <v>250</v>
       </c>
@@ -14078,7 +14166,7 @@
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="9" t="s">
         <v>251</v>
       </c>
@@ -14091,7 +14179,7 @@
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="9" t="s">
         <v>253</v>
       </c>
@@ -14104,7 +14192,7 @@
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="9" t="s">
         <v>255</v>
       </c>
@@ -14117,8 +14205,8 @@
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="22" t="s">
         <v>257</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -14130,7 +14218,7 @@
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="9" t="s">
         <v>259</v>
       </c>
@@ -14143,7 +14231,7 @@
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="9" t="s">
         <v>261</v>
       </c>
@@ -14156,7 +14244,7 @@
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="9" t="s">
         <v>263</v>
       </c>
@@ -14169,7 +14257,7 @@
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="9" t="s">
         <v>264</v>
       </c>
@@ -14182,7 +14270,7 @@
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="9" t="s">
         <v>266</v>
       </c>
@@ -14195,7 +14283,7 @@
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="9" t="s">
         <v>268</v>
       </c>
@@ -14208,7 +14296,7 @@
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="9" t="s">
         <v>270</v>
       </c>
@@ -14221,7 +14309,7 @@
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="9" t="s">
         <v>271</v>
       </c>
@@ -14234,7 +14322,7 @@
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="7" t="s">
         <v>272</v>
       </c>
@@ -14247,7 +14335,7 @@
       <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="7" t="s">
         <v>274</v>
       </c>
@@ -14260,7 +14348,7 @@
       <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="7" t="s">
         <v>276</v>
       </c>
@@ -14273,7 +14361,7 @@
       <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="26" t="s">
         <v>278</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -14288,7 +14376,7 @@
       <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="9" t="s">
         <v>280</v>
       </c>
@@ -14301,7 +14389,7 @@
       <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="9" t="s">
         <v>281</v>
       </c>
@@ -14314,7 +14402,7 @@
       <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="9" t="s">
         <v>283</v>
       </c>
@@ -14327,7 +14415,7 @@
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="26" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -14342,7 +14430,7 @@
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="9" t="s">
         <v>285</v>
       </c>
@@ -14355,7 +14443,7 @@
       <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="9" t="s">
         <v>286</v>
       </c>
@@ -14368,7 +14456,7 @@
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="9" t="s">
         <v>287</v>
       </c>
@@ -14381,7 +14469,7 @@
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="9" t="s">
         <v>288</v>
       </c>
@@ -14394,7 +14482,7 @@
       <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="9" t="s">
         <v>289</v>
       </c>
@@ -14407,7 +14495,7 @@
       <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="26" t="s">
         <v>290</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -14422,7 +14510,7 @@
       <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="9" t="s">
         <v>292</v>
       </c>
@@ -14435,7 +14523,7 @@
       <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="9" t="s">
         <v>293</v>
       </c>
@@ -14448,7 +14536,7 @@
       <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="9" t="s">
         <v>294</v>
       </c>
@@ -14461,7 +14549,7 @@
       <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="9" t="s">
         <v>296</v>
       </c>
@@ -14474,7 +14562,7 @@
       <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="26" t="s">
         <v>283</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -14489,7 +14577,7 @@
       <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="9" t="s">
         <v>298</v>
       </c>
@@ -14502,7 +14590,7 @@
       <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="9" t="s">
         <v>299</v>
       </c>
@@ -14515,7 +14603,7 @@
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="9" t="s">
         <v>300</v>
       </c>
@@ -14528,7 +14616,7 @@
       <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="9" t="s">
         <v>301</v>
       </c>
@@ -14541,7 +14629,7 @@
       <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="9" t="s">
         <v>302</v>
       </c>
@@ -14554,7 +14642,7 @@
       <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="17" t="s">
         <v>266</v>
       </c>
@@ -14569,7 +14657,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="26" t="s">
         <v>304</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -14584,7 +14672,7 @@
       <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -14597,7 +14685,7 @@
       <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="9" t="s">
         <v>307</v>
       </c>
@@ -14610,7 +14698,7 @@
       <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="26" t="s">
         <v>308</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -14625,7 +14713,7 @@
       <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="9" t="s">
         <v>310</v>
       </c>
@@ -14638,7 +14726,7 @@
       <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="9" t="s">
         <v>307</v>
       </c>
@@ -14651,7 +14739,7 @@
       <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="26" t="s">
         <v>311</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -14666,7 +14754,7 @@
       <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="9" t="s">
         <v>313</v>
       </c>
@@ -14679,7 +14767,7 @@
       <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="9" t="s">
         <v>314</v>
       </c>
@@ -14692,7 +14780,7 @@
       <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="9" t="s">
         <v>315</v>
       </c>
@@ -14705,7 +14793,7 @@
       <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="26" t="s">
         <v>317</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -14720,7 +14808,7 @@
       <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="9" t="s">
         <v>319</v>
       </c>
@@ -14733,7 +14821,7 @@
       <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="9" t="s">
         <v>320</v>
       </c>
@@ -14746,7 +14834,7 @@
       <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="9" t="s">
         <v>321</v>
       </c>
@@ -14759,7 +14847,7 @@
       <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="26" t="s">
         <v>322</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -14774,7 +14862,7 @@
       <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="9" t="s">
         <v>324</v>
       </c>
@@ -14787,7 +14875,7 @@
       <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="9" t="s">
         <v>325</v>
       </c>
@@ -14800,7 +14888,7 @@
       <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="9" t="s">
         <v>327</v>
       </c>
@@ -14813,7 +14901,7 @@
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="9" t="s">
         <v>328</v>
       </c>
@@ -14826,7 +14914,7 @@
       <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
+      <c r="A93" s="26"/>
       <c r="B93" s="9" t="s">
         <v>329</v>
       </c>
@@ -14934,7 +15022,7 @@
       <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -14949,7 +15037,7 @@
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="9" t="s">
         <v>342</v>
       </c>
@@ -14964,7 +15052,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+      <c r="A103" s="33"/>
       <c r="B103" s="9" t="s">
         <v>344</v>
       </c>
@@ -14979,7 +15067,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+      <c r="A104" s="33"/>
       <c r="B104" s="9" t="s">
         <v>463</v>
       </c>
@@ -14992,7 +15080,7 @@
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="9" t="s">
         <v>346</v>
       </c>
@@ -15005,7 +15093,7 @@
       <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="9" t="s">
         <v>348</v>
       </c>
@@ -15020,7 +15108,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="9" t="s">
         <v>350</v>
       </c>
@@ -15033,7 +15121,7 @@
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="9" t="s">
         <v>352</v>
       </c>
@@ -15048,7 +15136,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="9" t="s">
         <v>354</v>
       </c>
@@ -15063,7 +15151,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="34" t="s">
         <v>357</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -15078,7 +15166,7 @@
       <c r="E110" s="9"/>
     </row>
     <row r="111" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="9" t="s">
         <v>359</v>
       </c>
@@ -15091,7 +15179,7 @@
       <c r="E111" s="9"/>
     </row>
     <row r="112" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="9" t="s">
         <v>360</v>
       </c>
@@ -15104,7 +15192,7 @@
       <c r="E112" s="9"/>
     </row>
     <row r="113" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="9" t="s">
         <v>361</v>
       </c>
@@ -15119,7 +15207,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
+      <c r="A114" s="33"/>
       <c r="B114" s="9" t="s">
         <v>362</v>
       </c>
@@ -15134,7 +15222,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="9" t="s">
         <v>363</v>
       </c>
@@ -15147,7 +15235,7 @@
       <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="9" t="s">
         <v>364</v>
       </c>
@@ -15160,7 +15248,7 @@
       <c r="E116" s="9"/>
     </row>
     <row r="117" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40" t="s">
+      <c r="A117" s="21" t="s">
         <v>366</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -15175,7 +15263,7 @@
       <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="29" t="s">
         <v>368</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -15190,7 +15278,7 @@
       <c r="E118" s="9"/>
     </row>
     <row r="119" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="23"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="9" t="s">
         <v>370</v>
       </c>
@@ -15203,7 +15291,7 @@
       <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="9" t="s">
         <v>371</v>
       </c>
@@ -15216,7 +15304,7 @@
       <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="23"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="9" t="s">
         <v>372</v>
       </c>
@@ -15229,7 +15317,7 @@
       <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="23"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="9" t="s">
         <v>373</v>
       </c>
@@ -15242,7 +15330,7 @@
       <c r="E122" s="9"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="23"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="9" t="s">
         <v>374</v>
       </c>
@@ -15255,7 +15343,7 @@
       <c r="E123" s="9"/>
     </row>
     <row r="124" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="9" t="s">
         <v>376</v>
       </c>
@@ -15268,7 +15356,7 @@
       <c r="E124" s="9"/>
     </row>
     <row r="125" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="23"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="9" t="s">
         <v>378</v>
       </c>
@@ -15281,7 +15369,7 @@
       <c r="E125" s="9"/>
     </row>
     <row r="126" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="23"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="7" t="s">
         <v>379</v>
       </c>
@@ -15296,7 +15384,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="23"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="7" t="s">
         <v>380</v>
       </c>
@@ -15311,7 +15399,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="23"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="7" t="s">
         <v>381</v>
       </c>
@@ -15326,7 +15414,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="23"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="9" t="s">
         <v>382</v>
       </c>
@@ -15341,7 +15429,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="24" t="s">
+      <c r="A130" s="28" t="s">
         <v>383</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -15356,7 +15444,7 @@
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="9" t="s">
         <v>385</v>
       </c>
@@ -15368,7 +15456,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="9" t="s">
         <v>386</v>
       </c>
@@ -15381,7 +15469,7 @@
       <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="25"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="9" t="s">
         <v>387</v>
       </c>
@@ -15394,7 +15482,7 @@
       <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="9" t="s">
         <v>388</v>
       </c>
@@ -15407,7 +15495,7 @@
       <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="30" t="s">
         <v>389</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -15422,7 +15510,7 @@
       <c r="E135" s="9"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="22"/>
+      <c r="A136" s="30"/>
       <c r="B136" s="9" t="s">
         <v>391</v>
       </c>
@@ -15434,7 +15522,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="22"/>
+      <c r="A137" s="30"/>
       <c r="B137" s="9" t="s">
         <v>392</v>
       </c>
@@ -15447,7 +15535,7 @@
       <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
+      <c r="A138" s="30"/>
       <c r="B138" s="9" t="s">
         <v>393</v>
       </c>
@@ -15462,7 +15550,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="22"/>
+      <c r="A139" s="30"/>
       <c r="B139" s="9" t="s">
         <v>394</v>
       </c>
@@ -15477,7 +15565,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="22"/>
+      <c r="A140" s="30"/>
       <c r="B140" s="9" t="s">
         <v>395</v>
       </c>
@@ -15490,7 +15578,7 @@
       <c r="E140" s="16"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="26" t="s">
         <v>392</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -15505,7 +15593,7 @@
       <c r="E141" s="9"/>
     </row>
     <row r="142" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="21"/>
+      <c r="A142" s="26"/>
       <c r="B142" s="9" t="s">
         <v>324</v>
       </c>
@@ -15518,7 +15606,7 @@
       <c r="E142" s="9"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="26" t="s">
         <v>398</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -15533,7 +15621,7 @@
       <c r="E143" s="9"/>
     </row>
     <row r="144" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="21"/>
+      <c r="A144" s="26"/>
       <c r="B144" s="9" t="s">
         <v>400</v>
       </c>
@@ -15546,7 +15634,7 @@
       <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="21"/>
+      <c r="A145" s="26"/>
       <c r="B145" s="9" t="s">
         <v>401</v>
       </c>
@@ -15559,7 +15647,7 @@
       <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="21"/>
+      <c r="A146" s="26"/>
       <c r="B146" s="9" t="s">
         <v>402</v>
       </c>
@@ -15572,7 +15660,7 @@
       <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="28" t="s">
+      <c r="A147" s="23" t="s">
         <v>403</v>
       </c>
       <c r="B147" s="7" t="s">
@@ -15587,7 +15675,7 @@
       <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="7" t="s">
         <v>405</v>
       </c>
@@ -15600,7 +15688,7 @@
       <c r="E148" s="9"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="29"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="7" t="s">
         <v>406</v>
       </c>
@@ -15613,7 +15701,7 @@
       <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="29"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="7" t="s">
         <v>407</v>
       </c>
@@ -15626,7 +15714,7 @@
       <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="29"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="7" t="s">
         <v>408</v>
       </c>
@@ -15639,7 +15727,7 @@
       <c r="E151" s="9"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="30"/>
+      <c r="A152" s="25"/>
       <c r="B152" s="7" t="s">
         <v>410</v>
       </c>
@@ -15652,7 +15740,7 @@
       <c r="E152" s="9"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="23" t="s">
         <v>411</v>
       </c>
       <c r="B153" s="7" t="s">
@@ -15667,7 +15755,7 @@
       <c r="E153" s="9"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="29"/>
+      <c r="A154" s="24"/>
       <c r="B154" s="7" t="s">
         <v>413</v>
       </c>
@@ -15680,7 +15768,7 @@
       <c r="E154" s="9"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="7" t="s">
         <v>414</v>
       </c>
@@ -15693,7 +15781,7 @@
       <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
+      <c r="A156" s="24"/>
       <c r="B156" s="7" t="s">
         <v>415</v>
       </c>
@@ -15706,7 +15794,7 @@
       <c r="E156" s="9"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="29"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="7" t="s">
         <v>416</v>
       </c>
@@ -15719,7 +15807,7 @@
       <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="30"/>
+      <c r="A158" s="25"/>
       <c r="B158" s="7" t="s">
         <v>417</v>
       </c>
@@ -15734,7 +15822,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="23" t="s">
         <v>418</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -15749,7 +15837,7 @@
       <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
+      <c r="A160" s="24"/>
       <c r="B160" s="7" t="s">
         <v>420</v>
       </c>
@@ -15762,7 +15850,7 @@
       <c r="E160" s="9"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="29"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="7" t="s">
         <v>421</v>
       </c>
@@ -15775,7 +15863,7 @@
       <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="7" t="s">
         <v>422</v>
       </c>
@@ -15788,7 +15876,7 @@
       <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="7" t="s">
         <v>423</v>
       </c>
@@ -15801,7 +15889,7 @@
       <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="7" t="s">
         <v>424</v>
       </c>
@@ -15814,7 +15902,7 @@
       <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="30"/>
+      <c r="A165" s="25"/>
       <c r="B165" s="7" t="s">
         <v>426</v>
       </c>
@@ -15827,7 +15915,7 @@
       <c r="E165" s="9"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="23" t="s">
         <v>427</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -15842,7 +15930,7 @@
       <c r="E166" s="9"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="7" t="s">
         <v>429</v>
       </c>
@@ -15855,7 +15943,7 @@
       <c r="E167" s="9"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="7" t="s">
         <v>430</v>
       </c>
@@ -15868,7 +15956,7 @@
       <c r="E168" s="9"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="30"/>
+      <c r="A169" s="25"/>
       <c r="B169" s="7" t="s">
         <v>431</v>
       </c>
@@ -15881,7 +15969,7 @@
       <c r="E169" s="9"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="23" t="s">
         <v>432</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -15896,7 +15984,7 @@
       <c r="E170" s="9"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="7" t="s">
         <v>434</v>
       </c>
@@ -15909,7 +15997,7 @@
       <c r="E171" s="9"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="30"/>
+      <c r="A172" s="25"/>
       <c r="B172" s="7" t="s">
         <v>85</v>
       </c>
@@ -15923,24 +16011,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A31:A51"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="A118:A129"/>
-    <mergeCell ref="A130:A134"/>
     <mergeCell ref="A101:A109"/>
     <mergeCell ref="A110:A116"/>
     <mergeCell ref="A94:A100"/>
@@ -15950,13 +16020,31 @@
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="A118:A129"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A31:A51"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005F31D-5F18-4D53-AC21-42F2015A5297}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -15974,10 +16062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="2" t="s">
         <v>200</v>
       </c>
@@ -15989,7 +16077,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -16004,7 +16092,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="5" t="s">
         <v>85</v>
       </c>
@@ -16017,7 +16105,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="5" t="s">
         <v>438</v>
       </c>
@@ -16030,7 +16118,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="5" t="s">
         <v>439</v>
       </c>
@@ -16043,7 +16131,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
@@ -16056,7 +16144,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="40" t="s">
         <v>295</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -16071,7 +16159,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="5" t="s">
         <v>441</v>
       </c>
@@ -16084,7 +16172,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="40" t="s">
         <v>442</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -16099,7 +16187,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="5" t="s">
         <v>444</v>
       </c>
@@ -16112,7 +16200,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="5" t="s">
         <v>445</v>
       </c>
@@ -16125,7 +16213,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="1" t="s">
         <v>446</v>
       </c>
@@ -16138,7 +16226,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="1" t="s">
         <v>447</v>
       </c>
@@ -16151,7 +16239,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
         <v>448</v>
       </c>
@@ -16164,7 +16252,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="5" t="s">
         <v>449</v>
       </c>
@@ -16177,7 +16265,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="10" t="s">
         <v>450</v>
       </c>
@@ -16190,7 +16278,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
         <v>294</v>
       </c>
@@ -16203,7 +16291,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="12" t="s">
         <v>296</v>
       </c>
@@ -16216,7 +16304,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="12" t="s">
         <v>451</v>
       </c>
@@ -16231,7 +16319,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="29" t="s">
         <v>453</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -16246,7 +16334,7 @@
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="9" t="s">
         <v>455</v>
       </c>
@@ -16259,7 +16347,7 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="18" t="s">
         <v>456</v>
       </c>
@@ -16272,7 +16360,7 @@
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="29" t="s">
         <v>225</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -16287,7 +16375,7 @@
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="9" t="s">
         <v>457</v>
       </c>
@@ -16300,7 +16388,7 @@
       <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="9" t="s">
         <v>458</v>
       </c>
@@ -16313,7 +16401,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="9" t="s">
         <v>459</v>
       </c>
@@ -16326,7 +16414,7 @@
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="9" t="s">
         <v>460</v>
       </c>
@@ -16339,7 +16427,7 @@
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
         <v>461</v>
       </c>
@@ -16352,7 +16440,7 @@
       <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="9" t="s">
         <v>462</v>
       </c>
@@ -16609,15 +16697,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9ff55c19-750b-4d57-96fc-c7d80b080a4b">
@@ -16625,6 +16704,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16647,14 +16735,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BF6920-7D60-46C8-8FE9-AA64B4468D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF55BEAE-E784-4B1F-B505-3E3A62064FF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16662,4 +16742,12 @@
     <ds:schemaRef ds:uri="9ff55c19-750b-4d57-96fc-c7d80b080a4b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BF6920-7D60-46C8-8FE9-AA64B4468D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>